--- a/biology/Microbiologie/Gélose_TSN/Gélose_TSN.xlsx
+++ b/biology/Microbiologie/Gélose_TSN/Gélose_TSN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_TSN</t>
+          <t>Gélose_TSN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tryptone sulfite néomycine est un milieu pour la détection et l’énumération de Clostridium perfringens.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_TSN</t>
+          <t>Gélose_TSN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_TSN</t>
+          <t>Gélose_TSN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Mode d’action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu TSN est une gélose sélective, elle exploite le fait que Clostridium perfringens est résistant à la polymyxine, la néomycine (antibiotiques) et qu’il a le pouvoir de réduire les sulfites. 
 La croissance des autres Clostridia sulfito réducteurs est presque totalement inhibée car la flore d’accompagnement est largement supprimée.
